--- a/final_project/gru_gbrbm_H_div_2 (drop 0.2)/type2/pd_results_W20_H200_B32.xlsx
+++ b/final_project/gru_gbrbm_H_div_2 (drop 0.2)/type2/pd_results_W20_H200_B32.xlsx
@@ -502,25 +502,23 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.5484848484848485</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.3333333333333333</v>
-      </c>
+        <v>0.5495495495495496</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>0.9890710382513661</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5465465465465466</v>
+        <v>0.5495495495495496</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7056530214424951</v>
+        <v>0.7093023255813954</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4684684684684685</v>
+        <v>0.4864864864864865</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -528,19 +526,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.05751416281284104</v>
+        <v>0.09264825912191127</v>
       </c>
       <c r="J2" t="n">
-        <v>755.3324681147898</v>
+        <v>1224.793755300155</v>
       </c>
       <c r="K2" t="n">
-        <v>825894.4161821808</v>
+        <v>2071459.424056853</v>
       </c>
       <c r="L2" t="n">
-        <v>908.7873327584297</v>
+        <v>1439.256552549563</v>
       </c>
       <c r="M2" t="n">
-        <v>0.8464432089094026</v>
+        <v>0.6148579578695421</v>
       </c>
     </row>
   </sheetData>
